--- a/Fase 2/Evidencias Proyecto/Sprints/Daily Meeting/Daily Meetings – Sprint 1 (11–15 de agosto 2025).xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprints/Daily Meeting/Daily Meetings – Sprint 1 (11–15 de agosto 2025).xlsx
@@ -599,7 +599,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
@@ -619,7 +619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="22.5" customHeight="1">
       <c r="B8" s="6">
         <v>45880.0</v>
       </c>
@@ -639,7 +639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="22.5" customHeight="1">
       <c r="B9" s="6">
         <v>45880.0</v>
       </c>
@@ -659,7 +659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="22.5" customHeight="1">
       <c r="B10" s="6">
         <v>45880.0</v>
       </c>
@@ -679,7 +679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="22.5" customHeight="1">
       <c r="B11" s="6">
         <v>45880.0</v>
       </c>
@@ -699,7 +699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="22.5" customHeight="1">
       <c r="B12" s="6">
         <v>45881.0</v>
       </c>
@@ -719,7 +719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="22.5" customHeight="1">
       <c r="B13" s="6">
         <v>45881.0</v>
       </c>
@@ -739,7 +739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="22.5" customHeight="1">
       <c r="B14" s="6">
         <v>45881.0</v>
       </c>
@@ -759,7 +759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="22.5" customHeight="1">
       <c r="B15" s="6">
         <v>45881.0</v>
       </c>
@@ -779,7 +779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="22.5" customHeight="1">
       <c r="B16" s="6">
         <v>45882.0</v>
       </c>
@@ -799,7 +799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="22.5" customHeight="1">
       <c r="B17" s="6">
         <v>45882.0</v>
       </c>
@@ -819,7 +819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="22.5" customHeight="1">
       <c r="B18" s="6">
         <v>45882.0</v>
       </c>
@@ -839,7 +839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="22.5" customHeight="1">
       <c r="B19" s="6">
         <v>45882.0</v>
       </c>
@@ -859,7 +859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="22.5" customHeight="1">
       <c r="B20" s="6">
         <v>45883.0</v>
       </c>
@@ -879,7 +879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="22.5" customHeight="1">
       <c r="B21" s="6">
         <v>45883.0</v>
       </c>
@@ -899,7 +899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="22.5" customHeight="1">
       <c r="B22" s="6">
         <v>45883.0</v>
       </c>
@@ -919,7 +919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="22.5" customHeight="1">
       <c r="B23" s="6">
         <v>45883.0</v>
       </c>
@@ -939,7 +939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="22.5" customHeight="1">
       <c r="B24" s="6">
         <v>45884.0</v>
       </c>
@@ -959,7 +959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="22.5" customHeight="1">
       <c r="B25" s="6">
         <v>45884.0</v>
       </c>
@@ -979,7 +979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="22.5" customHeight="1">
       <c r="B26" s="6">
         <v>45884.0</v>
       </c>
@@ -999,7 +999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="22.5" customHeight="1">
       <c r="B27" s="6">
         <v>45884.0</v>
       </c>
